--- a/output/Low Util Trainer - 2024-05.xlsx
+++ b/output/Low Util Trainer - 2024-05.xlsx
@@ -7,26 +7,26 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Basuki Imelda" sheetId="1" r:id="rId1"/>
+    <sheet name="Algar Sinclair Alexander John" sheetId="1" r:id="rId1"/>
     <sheet name="Gereau Jason Jarett" sheetId="2" r:id="rId2"/>
     <sheet name="Handayani Khaerunisyah Risma" sheetId="3" r:id="rId3"/>
-    <sheet name="Phillips Toby" sheetId="4" r:id="rId4"/>
-    <sheet name="Lee Platel Connor" sheetId="5" r:id="rId5"/>
-    <sheet name="Pratama Dimas Indra" sheetId="6" r:id="rId6"/>
-    <sheet name="Roach Alex Scott" sheetId="7" r:id="rId7"/>
-    <sheet name="Oktavia Cindy" sheetId="8" r:id="rId8"/>
-    <sheet name="Khalisa Fairuz Putri" sheetId="9" r:id="rId9"/>
-    <sheet name="Jurado Michael John" sheetId="10" r:id="rId10"/>
-    <sheet name="Lawrence Moore John" sheetId="11" r:id="rId11"/>
-    <sheet name="Algar Sinclair Alexander John" sheetId="12" r:id="rId12"/>
-    <sheet name="Johanson Brian" sheetId="13" r:id="rId13"/>
+    <sheet name="Johanson Brian" sheetId="4" r:id="rId4"/>
+    <sheet name="Jurado Michael John" sheetId="5" r:id="rId5"/>
+    <sheet name="Phillips Toby" sheetId="6" r:id="rId6"/>
+    <sheet name="Lee Platel Connor" sheetId="7" r:id="rId7"/>
+    <sheet name="Pratama Dimas Indra" sheetId="8" r:id="rId8"/>
+    <sheet name="Rahmadya Nova Ayu" sheetId="9" r:id="rId9"/>
+    <sheet name="Jones Jack William Isaac" sheetId="10" r:id="rId10"/>
+    <sheet name="Oktavia Cindy" sheetId="11" r:id="rId11"/>
+    <sheet name="Khalisa Fairuz Putri" sheetId="12" r:id="rId12"/>
+    <sheet name="Murti Gitasya" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="186">
   <si>
     <t>class_date</t>
   </si>
@@ -43,34 +43,250 @@
     <t>02 May</t>
   </si>
   <si>
+    <t>05 May</t>
+  </si>
+  <si>
+    <t>06 May</t>
+  </si>
+  <si>
+    <t>07 May</t>
+  </si>
+  <si>
+    <t>08 May</t>
+  </si>
+  <si>
+    <t>09 May</t>
+  </si>
+  <si>
+    <t>10 May</t>
+  </si>
+  <si>
+    <t>11 May</t>
+  </si>
+  <si>
+    <t>14 May</t>
+  </si>
+  <si>
+    <t>15 May</t>
+  </si>
+  <si>
+    <t>16 May</t>
+  </si>
+  <si>
+    <t>19 May</t>
+  </si>
+  <si>
+    <t>20 May</t>
+  </si>
+  <si>
+    <t>21 May</t>
+  </si>
+  <si>
+    <t>22 May</t>
+  </si>
+  <si>
+    <t>25 May</t>
+  </si>
+  <si>
+    <t>30 May</t>
+  </si>
+  <si>
+    <t>31 May</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 18, 19</t>
+  </si>
+  <si>
+    <t>20, 15</t>
+  </si>
+  <si>
+    <t>12, 14, 15, 17, 18</t>
+  </si>
+  <si>
+    <t>12, 15, 16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>13, 14, 16, 18, 20</t>
+  </si>
+  <si>
+    <t>13, 16, 19, 20</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 18, 20, 19</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 18, 19</t>
+  </si>
+  <si>
+    <t>15, 17, 18, 20, 13</t>
+  </si>
+  <si>
+    <t>13, 17, 19, 20, 12</t>
+  </si>
+  <si>
+    <t>12, 15, 16, 18, 19</t>
+  </si>
+  <si>
+    <t>13, 16, 18, 12, 19</t>
+  </si>
+  <si>
+    <t>12, 13, 15, 17, 18</t>
+  </si>
+  <si>
+    <t>12, 15, 19, 20, 16</t>
+  </si>
+  <si>
+    <t>12, 13, 16, 19</t>
+  </si>
+  <si>
+    <t>14, 17, 20, 13, 19, 16</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 17, 18</t>
+  </si>
+  <si>
+    <t>19, 20, 15</t>
+  </si>
+  <si>
+    <t>13, 15, 18, 16</t>
+  </si>
+  <si>
+    <t>27 May</t>
+  </si>
+  <si>
+    <t>12, 13, 14, 16, 17, 20</t>
+  </si>
+  <si>
+    <t>12 May</t>
+  </si>
+  <si>
+    <t>13 May</t>
+  </si>
+  <si>
+    <t>26 May</t>
+  </si>
+  <si>
+    <t>28 May</t>
+  </si>
+  <si>
+    <t>29 May</t>
+  </si>
+  <si>
+    <t>13, 15, 16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>15, 17, 18, 19, 13</t>
+  </si>
+  <si>
+    <t>13, 15, 16, 17, 19</t>
+  </si>
+  <si>
+    <t>12, 16, 17, 19, 13</t>
+  </si>
+  <si>
+    <t>12, 14, 16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>13, 16, 17, 19, 20, 12</t>
+  </si>
+  <si>
+    <t>12, 16, 17, 18, 13</t>
+  </si>
+  <si>
+    <t>12, 13, 16, 18, 20, 19</t>
+  </si>
+  <si>
+    <t>12, 16, 17, 13, 19</t>
+  </si>
+  <si>
+    <t>12, 14, 15, 16, 18, 19</t>
+  </si>
+  <si>
+    <t>13, 14, 16, 17, 19</t>
+  </si>
+  <si>
     <t>03 May</t>
   </si>
   <si>
     <t>04 May</t>
   </si>
   <si>
-    <t>07 May</t>
-  </si>
-  <si>
-    <t>08 May</t>
-  </si>
-  <si>
-    <t>09 May</t>
-  </si>
-  <si>
-    <t>10 May</t>
-  </si>
-  <si>
-    <t>12 May</t>
-  </si>
-  <si>
-    <t>13 May</t>
-  </si>
-  <si>
-    <t>14 May</t>
-  </si>
-  <si>
-    <t>15 May</t>
+    <t>23 May</t>
+  </si>
+  <si>
+    <t>24 May</t>
+  </si>
+  <si>
+    <t>12, 15, 17, 19</t>
+  </si>
+  <si>
+    <t>15, 17, 19, 13, 18</t>
+  </si>
+  <si>
+    <t>12, 14, 15, 18, 20, 19</t>
+  </si>
+  <si>
+    <t>12, 15, 16, 17, 19</t>
+  </si>
+  <si>
+    <t>12, 13, 14, 19</t>
+  </si>
+  <si>
+    <t>14, 15, 18, 20, 12, 19</t>
+  </si>
+  <si>
+    <t>15, 16, 12, 19, 17</t>
+  </si>
+  <si>
+    <t>19, 12</t>
+  </si>
+  <si>
+    <t>14, 17, 19, 13</t>
+  </si>
+  <si>
+    <t>12, 15, 16, 19</t>
+  </si>
+  <si>
+    <t>12, 14, 16, 17, 19</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>12, 13, 14, 16, 17, 19</t>
+  </si>
+  <si>
+    <t>12, 14, 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>12, 15, 16, 18, 20, 19</t>
+  </si>
+  <si>
+    <t>12, 14, 15, 17, 18, 19</t>
+  </si>
+  <si>
+    <t>13, 14, 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>15, 18, 19, 20, 12, 14</t>
+  </si>
+  <si>
+    <t>12, 13, 16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>15, 16, 18, 19, 20, 12</t>
+  </si>
+  <si>
+    <t>12, 13, 14, 16, 17, 18</t>
+  </si>
+  <si>
+    <t>15, 16, 17, 13, 19</t>
+  </si>
+  <si>
+    <t>11, 12, 14, 15, 17, 18</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 18, 19, 20</t>
   </si>
   <si>
     <t>17 May</t>
@@ -79,445 +295,295 @@
     <t>18 May</t>
   </si>
   <si>
-    <t>21 May</t>
-  </si>
-  <si>
-    <t>22 May</t>
-  </si>
-  <si>
-    <t>23 May</t>
-  </si>
-  <si>
-    <t>24 May</t>
-  </si>
-  <si>
-    <t>26 May</t>
-  </si>
-  <si>
-    <t>27 May</t>
-  </si>
-  <si>
-    <t>28 May</t>
-  </si>
-  <si>
-    <t>29 May</t>
-  </si>
-  <si>
-    <t>30 May</t>
-  </si>
-  <si>
     <t>13, 15, 16, 17, 19, 20</t>
   </si>
   <si>
-    <t>12, 13, 16, 18</t>
-  </si>
-  <si>
-    <t>12, 15, 16, 18</t>
+    <t>12, 13, 14, 16, 18, 19</t>
+  </si>
+  <si>
+    <t>12, 13, 16, 17, 20, 19</t>
+  </si>
+  <si>
+    <t>13, 14, 16, 17, 18, 20</t>
   </si>
   <si>
     <t>13, 14, 15, 17, 18, 19</t>
   </si>
   <si>
-    <t>13, 15, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>14, 15, 16, 18, 19, 20</t>
+    <t>13, 16, 18, 12, 19, 20</t>
+  </si>
+  <si>
+    <t>14, 16, 18, 19, 20, 13</t>
+  </si>
+  <si>
+    <t>13, 14, 16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>13, 15, 17, 18, 19</t>
+  </si>
+  <si>
+    <t>12, 13, 16, 18, 19</t>
+  </si>
+  <si>
+    <t>14, 15, 18, 20, 19, 16</t>
+  </si>
+  <si>
+    <t>12, 15, 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>13, 15, 16, 18, 19</t>
+  </si>
+  <si>
+    <t>15, 16, 17, 20, 19</t>
+  </si>
+  <si>
+    <t>14, 15, 18, 19, 16</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 17</t>
+  </si>
+  <si>
+    <t>12, 15, 18, 19, 16</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 18, 19, 12</t>
+  </si>
+  <si>
+    <t>12, 14, 16, 18, 20, 19</t>
+  </si>
+  <si>
+    <t>12, 15, 16, 18, 19, 13</t>
+  </si>
+  <si>
+    <t>13, 15, 16, 18</t>
+  </si>
+  <si>
+    <t>14, 16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>11, 12, 13, 15, 16, 17</t>
+  </si>
+  <si>
+    <t>15, 16, 18, 12, 19</t>
+  </si>
+  <si>
+    <t>12, 13, 14, 17, 18</t>
+  </si>
+  <si>
+    <t>12, 14, 16, 18, 19</t>
+  </si>
+  <si>
+    <t>12, 18, 19, 13, 20</t>
+  </si>
+  <si>
+    <t>15, 16, 17, 19, 20, 13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11, 12, 14, 16, 17, 18</t>
+  </si>
+  <si>
+    <t>13, 16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>15, 16, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>12, 13, 15, 17, 19</t>
+  </si>
+  <si>
+    <t>15, 16, 18, 19, 20, 13</t>
   </si>
   <si>
     <t>11, 12, 14, 15, 16, 18</t>
   </si>
   <si>
-    <t>13, 15, 16, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>13, 15, 16, 18</t>
-  </si>
-  <si>
-    <t>15, 17, 18, 19</t>
-  </si>
-  <si>
-    <t>12, 13, 16, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>15, 16</t>
-  </si>
-  <si>
-    <t>11, 12, 14, 16, 17, 18</t>
-  </si>
-  <si>
-    <t>05 May</t>
-  </si>
-  <si>
-    <t>16 May</t>
-  </si>
-  <si>
-    <t>19 May</t>
-  </si>
-  <si>
-    <t>25 May</t>
-  </si>
-  <si>
-    <t>12, 16, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>12, 13, 15, 16, 17, 19</t>
-  </si>
-  <si>
-    <t>12, 16, 18, 20</t>
-  </si>
-  <si>
-    <t>12, 14, 16, 17, 19</t>
-  </si>
-  <si>
-    <t>12, 16, 17, 20</t>
-  </si>
-  <si>
-    <t>12, 13, 14, 16, 17, 20</t>
-  </si>
-  <si>
-    <t>06 May</t>
-  </si>
-  <si>
-    <t>20 May</t>
-  </si>
-  <si>
-    <t>13, 15, 16, 18, 19</t>
-  </si>
-  <si>
-    <t>15, 17, 19</t>
-  </si>
-  <si>
-    <t>12, 15, 16, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>14, 15, 16, 18</t>
-  </si>
-  <si>
-    <t>13, 15, 16, 17</t>
-  </si>
-  <si>
-    <t>12, 16, 17, 19</t>
-  </si>
-  <si>
-    <t>12, 14, 16, 18, 19, 20</t>
+    <t>12, 13, 14, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>15, 19, 13, 17, 18</t>
+  </si>
+  <si>
+    <t>14, 16, 18, 19, 15</t>
+  </si>
+  <si>
+    <t>13, 14, 15, 19, 18, 20</t>
+  </si>
+  <si>
+    <t>13, 14, 16, 18, 20, 19</t>
+  </si>
+  <si>
+    <t>13, 15, 17, 19, 12, 20</t>
+  </si>
+  <si>
+    <t>14, 16, 18, 19, 20, 12</t>
+  </si>
+  <si>
+    <t>12, 16, 18, 19, 20, 13</t>
+  </si>
+  <si>
+    <t>19, 13, 17, 15</t>
+  </si>
+  <si>
+    <t>12, 19, 15, 18</t>
+  </si>
+  <si>
+    <t>12, 15, 16, 19, 20</t>
+  </si>
+  <si>
+    <t>12, 14, 15, 18, 17</t>
+  </si>
+  <si>
+    <t>13, 16, 19, 20, 18</t>
+  </si>
+  <si>
+    <t>12, 15, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>16, 18, 19, 20, 12</t>
+  </si>
+  <si>
+    <t>12, 17, 16, 19</t>
+  </si>
+  <si>
+    <t>13, 16, 19, 20, 17</t>
+  </si>
+  <si>
+    <t>11, 13, 15, 17, 18</t>
+  </si>
+  <si>
+    <t>12, 14, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 19, 20</t>
+  </si>
+  <si>
+    <t>15, 18, 19, 20, 12</t>
+  </si>
+  <si>
+    <t>11, 12, 15, 14, 17</t>
+  </si>
+  <si>
+    <t>14, 16, 19, 20, 17</t>
+  </si>
+  <si>
+    <t>12, 16, 13, 19</t>
+  </si>
+  <si>
+    <t>11, 13, 16, 17, 18</t>
+  </si>
+  <si>
+    <t>19, 20, 15, 16, 17</t>
+  </si>
+  <si>
+    <t>17, 19, 20, 14</t>
+  </si>
+  <si>
+    <t>14, 17, 18, 20, 16</t>
+  </si>
+  <si>
+    <t>14, 15, 18, 19, 17</t>
+  </si>
+  <si>
+    <t>12, 16, 17, 18, 20</t>
+  </si>
+  <si>
+    <t>14, 15, 17, 18</t>
+  </si>
+  <si>
+    <t>18, 19, 20, 15, 16</t>
+  </si>
+  <si>
+    <t>17, 19, 20, 15</t>
+  </si>
+  <si>
+    <t>15, 16, 17, 19</t>
+  </si>
+  <si>
+    <t>16, 18, 19, 12</t>
+  </si>
+  <si>
+    <t>16, 17, 12, 20, 19</t>
   </si>
   <si>
     <t>13, 16, 17, 19, 20</t>
   </si>
   <si>
-    <t>12, 16, 17, 18</t>
-  </si>
-  <si>
-    <t>12, 13, 16, 18, 20</t>
-  </si>
-  <si>
-    <t>12, 16, 17</t>
-  </si>
-  <si>
-    <t>12, 14, 15, 16, 18, 19</t>
-  </si>
-  <si>
-    <t>13, 14, 16, 17</t>
-  </si>
-  <si>
-    <t>11 May</t>
-  </si>
-  <si>
-    <t>31 May</t>
-  </si>
-  <si>
-    <t>12, 15, 16, 18, 20</t>
-  </si>
-  <si>
-    <t>13, 15, 16, 17, 19</t>
-  </si>
-  <si>
-    <t>12, 13, 14, 16, 18, 19</t>
-  </si>
-  <si>
-    <t>12, 13, 16, 17, 20</t>
-  </si>
-  <si>
-    <t>13, 14, 17, 18, 20</t>
-  </si>
-  <si>
-    <t>13, 14, 16, 17, 18</t>
-  </si>
-  <si>
-    <t>13, 16, 18</t>
-  </si>
-  <si>
-    <t>13, 14, 16, 18</t>
-  </si>
-  <si>
-    <t>14, 16, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>13, 15, 17, 18, 19</t>
-  </si>
-  <si>
-    <t>12, 16, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>14, 15, 18, 20</t>
-  </si>
-  <si>
-    <t>12, 15, 16, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>13, 14, 16, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>15, 16, 17, 20</t>
-  </si>
-  <si>
-    <t>14, 15, 18</t>
-  </si>
-  <si>
-    <t>13, 14, 15, 17</t>
-  </si>
-  <si>
-    <t>12, 15, 18</t>
-  </si>
-  <si>
-    <t>12, 15, 16, 17</t>
-  </si>
-  <si>
-    <t>14, 15, 16, 18, 19</t>
-  </si>
-  <si>
-    <t>12, 14, 16, 18, 20</t>
-  </si>
-  <si>
-    <t>12, 15, 16, 18, 19</t>
-  </si>
-  <si>
-    <t>13, 15, 16</t>
-  </si>
-  <si>
-    <t>12, 13, 14, 16, 17, 18</t>
-  </si>
-  <si>
-    <t>16, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>11, 12, 13, 15, 16, 17</t>
-  </si>
-  <si>
-    <t>12, 14, 16, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>15, 16, 18</t>
-  </si>
-  <si>
-    <t>12, 13, 14, 17, 18</t>
-  </si>
-  <si>
-    <t>12, 14, 16, 18</t>
-  </si>
-  <si>
-    <t>12, 18, 19</t>
+    <t>15, 18, 12, 19</t>
+  </si>
+  <si>
+    <t>15, 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>13, 15, 17, 18</t>
+  </si>
+  <si>
+    <t>15, 17, 13, 19</t>
+  </si>
+  <si>
+    <t>14, 15, 16, 18, 20</t>
+  </si>
+  <si>
+    <t>14, 17, 18, 19, 15</t>
+  </si>
+  <si>
+    <t>12, 13, 14, 16, 18</t>
+  </si>
+  <si>
+    <t>14, 16, 19, 20</t>
+  </si>
+  <si>
+    <t>13, 15, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>14, 15, 19</t>
+  </si>
+  <si>
+    <t>15, 16, 19, 20, 18</t>
+  </si>
+  <si>
+    <t>14, 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>12, 17, 18, 19</t>
   </si>
   <si>
     <t>15, 17, 19, 20</t>
   </si>
   <si>
-    <t>14, 19, 20</t>
-  </si>
-  <si>
-    <t>12, 14, 15, 16, 19, 20</t>
-  </si>
-  <si>
-    <t>13, 14, 16, 19, 20</t>
-  </si>
-  <si>
-    <t>15, 16, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>13, 14, 15, 17, 19</t>
-  </si>
-  <si>
-    <t>13, 14, 16, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>13, 15, 16, 17, 20</t>
-  </si>
-  <si>
-    <t>12, 15, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>13, 15, 17</t>
-  </si>
-  <si>
-    <t>12, 13, 15, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>12, 15, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>12, 17</t>
-  </si>
-  <si>
-    <t>13, 16, 19, 20</t>
-  </si>
-  <si>
-    <t>11, 13, 15, 17, 18</t>
-  </si>
-  <si>
-    <t>12, 14, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>14, 15, 16, 19, 20</t>
-  </si>
-  <si>
-    <t>15, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>11, 12, 15</t>
-  </si>
-  <si>
-    <t>14, 16, 19, 20</t>
-  </si>
-  <si>
-    <t>12, 16</t>
-  </si>
-  <si>
-    <t>11, 13, 16, 17</t>
-  </si>
-  <si>
-    <t>19, 20</t>
-  </si>
-  <si>
-    <t>17, 19, 20</t>
-  </si>
-  <si>
-    <t>17, 18, 20</t>
-  </si>
-  <si>
-    <t>12, 17, 18, 20</t>
-  </si>
-  <si>
-    <t>14, 15, 17</t>
-  </si>
-  <si>
-    <t>18, 19</t>
-  </si>
-  <si>
-    <t>17, 19</t>
-  </si>
-  <si>
-    <t>16, 18</t>
-  </si>
-  <si>
-    <t>16, 17</t>
-  </si>
-  <si>
-    <t>13, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>15, 18</t>
-  </si>
-  <si>
-    <t>13, 15, 17, 18</t>
-  </si>
-  <si>
-    <t>15, 17</t>
-  </si>
-  <si>
-    <t>14, 15, 16, 18, 20</t>
-  </si>
-  <si>
-    <t>17, 18, 19</t>
-  </si>
-  <si>
-    <t>12, 13, 14, 16, 18</t>
-  </si>
-  <si>
-    <t>13, 15, 17, 19, 20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13, 14, 15, 18, 19, 20</t>
-  </si>
-  <si>
-    <t>12, 14, 16, 17</t>
-  </si>
-  <si>
-    <t>12, 14, 15, 17, 18</t>
-  </si>
-  <si>
-    <t>16, 18, 19</t>
-  </si>
-  <si>
-    <t>15, 16, 17</t>
-  </si>
-  <si>
     <t>12, 13, 18, 19, 20</t>
   </si>
   <si>
-    <t>11, 12, 14, 15, 17, 18</t>
-  </si>
-  <si>
-    <t>13, 14, 16, 17, 19</t>
-  </si>
-  <si>
-    <t>13, 15, 16, 19, 20</t>
-  </si>
-  <si>
-    <t>12, 14, 15, 17, 18, 19</t>
-  </si>
-  <si>
-    <t>14, 17, 18, 19</t>
-  </si>
-  <si>
-    <t>14, 16, 18</t>
-  </si>
-  <si>
-    <t>13, 15, 16, 18, 20</t>
-  </si>
-  <si>
-    <t>14, 16, 17</t>
-  </si>
-  <si>
-    <t>13, 14, 15, 18</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>13, 18, 20</t>
-  </si>
-  <si>
-    <t>13, 16</t>
-  </si>
-  <si>
-    <t>15, 17, 18</t>
-  </si>
-  <si>
-    <t>13, 17, 20</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>12, 13, 16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>14, 20</t>
-  </si>
-  <si>
-    <t>14, 17, 19</t>
-  </si>
-  <si>
-    <t>14, 16, 17, 19</t>
+    <t>14, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>12, 14, 15, 17</t>
+  </si>
+  <si>
+    <t>17, 19, 20, 12</t>
+  </si>
+  <si>
+    <t>12, 14, 16</t>
+  </si>
+  <si>
+    <t>12, 13, 17, 18, 20</t>
+  </si>
+  <si>
+    <t>14, 18, 13, 19</t>
+  </si>
+  <si>
+    <t>13, 14, 17, 18, 19</t>
+  </si>
+  <si>
+    <t>16, 17, 19, 20, 14</t>
+  </si>
+  <si>
+    <t>14, 15, 17, 19, 20</t>
   </si>
 </sst>
 </file>
@@ -875,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -914,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -928,10 +994,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -942,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -959,7 +1025,7 @@
         <v>26</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -984,10 +1050,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -998,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -1012,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1026,10 +1092,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1040,10 +1106,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1054,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1071,7 +1137,7 @@
         <v>34</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1085,7 +1151,7 @@
         <v>35</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1099,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1113,7 +1179,7 @@
         <v>37</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1124,10 +1190,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1138,10 +1204,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1152,66 +1218,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1221,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1260,10 +1270,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1271,13 +1281,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1285,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1302,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1316,10 +1326,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1327,13 +1337,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1341,13 +1351,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1358,7 +1368,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1372,10 +1382,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1386,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -1397,13 +1407,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1411,10 +1421,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -1425,10 +1435,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1439,13 +1449,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1453,13 +1463,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1467,13 +1477,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1481,10 +1491,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1495,10 +1505,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1509,27 +1519,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1538,6 +1534,586 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -1561,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1575,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1589,13 +2165,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1606,10 +2182,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1620,10 +2196,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>176</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1634,10 +2210,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1645,10 +2221,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -1659,13 +2235,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1673,13 +2249,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1687,10 +2263,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1701,13 +2277,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1715,13 +2291,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1729,13 +2305,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1743,10 +2319,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1757,13 +2333,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1771,13 +2347,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1785,10 +2361,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -1799,13 +2375,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1813,13 +2389,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1827,9 +2403,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1851,592 +2427,12 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9">
         <v>6</v>
       </c>
     </row>
@@ -2472,10 +2468,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2483,13 +2479,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2497,10 +2493,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -2514,10 +2510,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2528,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2542,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2553,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2567,10 +2563,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -2581,10 +2577,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2595,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2609,13 +2605,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2623,13 +2619,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2637,13 +2633,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2654,10 +2650,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2665,10 +2661,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -2679,10 +2675,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -2693,13 +2689,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2707,10 +2703,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -2721,13 +2717,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2736,6 +2732,572 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -2762,7 +3324,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -2776,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2787,13 +3349,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2801,10 +3363,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2818,10 +3380,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2832,7 +3394,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -2846,10 +3408,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2860,10 +3422,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2871,10 +3433,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2885,13 +3447,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2899,10 +3461,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -2913,13 +3475,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2927,10 +3489,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -2941,13 +3503,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2958,10 +3520,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2972,10 +3534,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2983,13 +3545,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2997,10 +3559,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -3011,10 +3573,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3025,13 +3587,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3039,13 +3601,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3053,13 +3615,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3067,10 +3629,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -3081,7 +3643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -3108,10 +3670,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3122,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -3133,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>79</v>
@@ -3147,10 +3709,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -3161,13 +3723,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3178,10 +3740,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3192,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -3206,10 +3768,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3217,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3231,10 +3793,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -3245,13 +3807,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3259,13 +3821,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3273,10 +3835,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -3287,13 +3849,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3304,10 +3866,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3318,10 +3880,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3329,13 +3891,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3343,13 +3905,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3357,13 +3919,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3371,9 +3933,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3398,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -3412,10 +3974,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3423,10 +3985,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -3437,13 +3999,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3454,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -3468,7 +4030,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -3479,10 +4041,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -3493,10 +4055,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -3507,13 +4069,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3521,13 +4083,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3535,13 +4097,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3549,10 +4111,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -3563,13 +4125,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3580,10 +4142,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3594,10 +4156,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3605,13 +4167,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3619,13 +4181,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3633,27 +4195,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3661,325 +4209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4003,13 +4233,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4017,13 +4247,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4031,13 +4261,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4048,10 +4278,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4062,10 +4292,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4073,10 +4303,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -4087,13 +4317,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4101,13 +4331,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4115,13 +4345,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4129,13 +4359,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4143,13 +4373,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4157,13 +4387,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4171,13 +4401,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4185,13 +4415,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4199,13 +4429,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4213,13 +4443,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4227,317 +4457,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
